--- a/図書貸出データベース/ふつうのEXCEL表の場合.xlsx
+++ b/図書貸出データベース/ふつうのEXCEL表の場合.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve">貸出番号</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C01</t>
   </si>
   <si>
     <t xml:space="preserve">浦島太郎</t>
@@ -64,6 +61,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中川李枝子</t>
     </r>
@@ -83,6 +81,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大村百合子</t>
     </r>
@@ -109,6 +108,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ルース・スタイル・がネット</t>
     </r>
@@ -129,12 +129,10 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ルース・クリスマン・ガネット</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C03</t>
   </si>
   <si>
     <t xml:space="preserve">金太郎</t>
@@ -161,6 +159,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">谷川俊太郎</t>
     </r>
@@ -180,12 +179,10 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和田真</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C04</t>
   </si>
   <si>
     <t xml:space="preserve">かぐや姫</t>
@@ -205,6 +202,7 @@
       <color theme="1"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,45 +282,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -574,224 +568,224 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="n">
+        <v>45565</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>45580</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>45565</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>45580</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="33.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="n">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>123457</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>45565</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>45580</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>123457</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>45565</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>45580</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="n">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>123458</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>45552</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
-    <row r="10" s="9" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M10" s="0"/>
-    </row>
+    <row r="10" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E4"/>
